--- a/DVE_0101_FINANCIAL_REPORT/STEP01_BALANCE_SHEET_CHART.xlsx
+++ b/DVE_0101_FINANCIAL_REPORT/STEP01_BALANCE_SHEET_CHART.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\TEMP\EXCEL_DATA_VISUALIZTION_0101\EDV_0101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VISUALIZING_DATA_IN_EXCEL\DVE_0101_FINANCIAL_REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>TÀI SẢN</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>DÀI</t>
+  </si>
+  <si>
+    <t>BẢNG CÂN ĐỐI KẾ TOÁN</t>
+  </si>
+  <si>
+    <t>NGẮN - DÀI</t>
+  </si>
+  <si>
+    <t>Cấu trúc tài chính</t>
   </si>
 </sst>
 </file>
@@ -66,7 +75,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +85,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,19 +119,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,7 +176,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$C$1</c:f>
+              <c:f>BALANCE_SHEET!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -236,12 +255,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$C$2:$C$3</c:f>
+              <c:f>BALANCE_SHEET!$H$2:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -257,7 +276,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$D$1</c:f>
+              <c:f>BALANCE_SHEET!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -336,12 +355,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$D$2:$D$3</c:f>
+              <c:f>BALANCE_SHEET!$I$2:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>3568</c:v>
+                  <c:v>14260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,7 +376,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$E$1</c:f>
+              <c:f>BALANCE_SHEET!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -436,12 +455,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$E$2:$E$3</c:f>
+              <c:f>BALANCE_SHEET!$J$2:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>6432</c:v>
+                  <c:v>85740</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,7 +583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$H$1</c:f>
+              <c:f>BALANCE_SHEET!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -643,7 +662,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$G$2:$G$3</c:f>
+              <c:f>BALANCE_SHEET!$L$2:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -657,12 +676,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$H$2:$H$3</c:f>
+              <c:f>BALANCE_SHEET!$M$2:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9193</c:v>
+                  <c:v>38937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,7 +697,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$I$1</c:f>
+              <c:f>BALANCE_SHEET!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -757,7 +776,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$G$2:$G$3</c:f>
+              <c:f>BALANCE_SHEET!$L$2:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -771,12 +790,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$I$2:$I$3</c:f>
+              <c:f>BALANCE_SHEET!$N$2:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>807</c:v>
+                  <c:v>61063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +811,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$J$1</c:f>
+              <c:f>BALANCE_SHEET!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -871,7 +890,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$G$2:$G$3</c:f>
+              <c:f>BALANCE_SHEET!$L$2:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -885,12 +904,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$J$2:$J$3</c:f>
+              <c:f>BALANCE_SHEET!$O$2:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>8676</c:v>
+                  <c:v>38911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,7 +925,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$K$1</c:f>
+              <c:f>BALANCE_SHEET!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -985,7 +1004,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$G$2:$G$3</c:f>
+              <c:f>BALANCE_SHEET!$L$2:$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -999,12 +1018,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$K$2:$K$3</c:f>
+              <c:f>BALANCE_SHEET!$P$2:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>1324</c:v>
+                  <c:v>61089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1179,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$N$1</c:f>
+              <c:f>BALANCE_SHEET!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1239,7 +1258,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$M$2:$M$3</c:f>
+              <c:f>BALANCE_SHEET!$R$2:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1253,12 +1272,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$N$2:$N$3</c:f>
+              <c:f>BALANCE_SHEET!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>807</c:v>
+                  <c:v>61063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,7 +1293,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$O$1</c:f>
+              <c:f>BALANCE_SHEET!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1353,7 +1372,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$M$2:$M$3</c:f>
+              <c:f>BALANCE_SHEET!$R$2:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1367,12 +1386,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$O$2:$O$3</c:f>
+              <c:f>BALANCE_SHEET!$T$2:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9193</c:v>
+                  <c:v>38937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,7 +1407,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$P$1</c:f>
+              <c:f>BALANCE_SHEET!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1467,7 +1486,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$M$2:$M$3</c:f>
+              <c:f>BALANCE_SHEET!$R$2:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1481,12 +1500,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$P$2:$P$3</c:f>
+              <c:f>BALANCE_SHEET!$U$2:$U$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>1324</c:v>
+                  <c:v>61089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,7 +1521,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$Q$1</c:f>
+              <c:f>BALANCE_SHEET!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1581,7 +1600,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BALANCE_SHEET!$M$2:$M$3</c:f>
+              <c:f>BALANCE_SHEET!$R$2:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1595,12 +1614,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BALANCE_SHEET!$Q$2:$Q$3</c:f>
+              <c:f>BALANCE_SHEET!$V$2:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>8676</c:v>
+                  <c:v>38911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,6 +1706,789 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1495528655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BALANCE_SHEET!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TÀI SẢN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BALANCE_SHEET!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TÀI SẢN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NGUỒN VỐN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BALANCE_SHEET!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78BB-4A90-828A-55880DA06850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BALANCE_SHEET!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VCSH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-78BB-4A90-828A-55880DA06850}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BALANCE_SHEET!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TÀI SẢN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NGUỒN VỐN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BALANCE_SHEET!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>85740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78BB-4A90-828A-55880DA06850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BALANCE_SHEET!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NỢ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>BALANCE_SHEET!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TÀI SẢN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NGUỒN VỐN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BALANCE_SHEET!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>14260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78BB-4A90-828A-55880DA06850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="1612522144"/>
+        <c:axId val="1612522560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1612522144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1612522560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1612522560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1612522144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0555555555555555E-2"/>
+          <c:y val="1.0096705826210245E-2"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.93897736045026448"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BALANCE_SHEET!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NỢ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>BALANCE_SHEET!$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98F9-4C25-AAD2-FBC619461CDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BALANCE_SHEET!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VCSH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>BALANCE_SHEET!$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.85740000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98F9-4C25-AAD2-FBC619461CDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1612520480"/>
+        <c:axId val="1612515904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1612520480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1612515904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1612515904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1612520480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1850,6 +2652,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3365,17 +4247,1027 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3399,13 +5291,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3429,13 +5321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3452,6 +5344,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3723,10 +5675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q3"/>
+  <dimension ref="B1:Z22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3736,37 +5688,44 @@
     <col min="3" max="5" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="3.44140625" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="11.21875" customWidth="1"/>
+    <col min="8" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="17" width="3.44140625" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11.21875" customWidth="1"/>
+    <col min="23" max="23" width="3.44140625" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="26.33203125" customWidth="1"/>
+    <col min="27" max="27" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1"/>
       <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
@@ -3776,16 +5735,34 @@
       <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>10000</v>
+      <c r="C2" s="4">
+        <f>+H2</f>
+        <v>100000</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3793,67 +5770,112 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">+RANDBETWEEN(1,C2)</f>
-        <v>9193</v>
+        <v>100000</v>
       </c>
-      <c r="I2" s="2">
-        <f ca="1">+C2-H2</f>
-        <v>807</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="2">
-        <f ca="1">+I2</f>
-        <v>807</v>
+      <c r="M2" s="4">
+        <f ca="1">+RANDBETWEEN(1,H2)</f>
+        <v>38937</v>
       </c>
-      <c r="O2" s="2">
-        <f ca="1">+H2</f>
-        <v>9193</v>
+      <c r="N2" s="4">
+        <f ca="1">+H2-M2</f>
+        <v>61063</v>
       </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <f ca="1">+N2</f>
+        <v>61063</v>
+      </c>
+      <c r="T2" s="4">
+        <f ca="1">+M2</f>
+        <v>38937</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="X2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="5">
+        <f ca="1">+E3/$C$2</f>
+        <v>0.1426</v>
+      </c>
+      <c r="Z2" s="5">
+        <f ca="1">+D3/$C$2</f>
+        <v>0.85740000000000005</v>
+      </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <f ca="1">+RANDBETWEEN(1,C2)</f>
-        <v>3568</v>
+      <c r="D3" s="4">
+        <f ca="1">+J3</f>
+        <v>85740</v>
       </c>
-      <c r="E3" s="2">
-        <f ca="1">+C2-D3</f>
-        <v>6432</v>
+      <c r="E3" s="4">
+        <f ca="1">+I3</f>
+        <v>14260</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
-        <f ca="1">+RANDBETWEEN(1,C2)</f>
-        <v>8676</v>
+      <c r="I3" s="4">
+        <f ca="1">+RANDBETWEEN(500,H2)</f>
+        <v>14260</v>
       </c>
-      <c r="K3" s="2">
-        <f ca="1">C2-J3</f>
-        <v>1324</v>
+      <c r="J3" s="4">
+        <f ca="1">+H2-I3</f>
+        <v>85740</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2">
-        <f ca="1">+K3</f>
-        <v>1324</v>
+      <c r="O3" s="4">
+        <f ca="1">+RANDBETWEEN(1,H2)</f>
+        <v>38911</v>
       </c>
-      <c r="Q3" s="2">
-        <f ca="1">+J3</f>
-        <v>8676</v>
+      <c r="P3" s="4">
+        <f ca="1">H2-O3</f>
+        <v>61089</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="4">
+        <f ca="1">+P3</f>
+        <v>61089</v>
+      </c>
+      <c r="V3" s="4">
+        <f ca="1">+O3</f>
+        <v>38911</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
